--- a/biology/Zoologie/Citronnelle_rouillée/Citronnelle_rouillée.xlsx
+++ b/biology/Zoologie/Citronnelle_rouillée/Citronnelle_rouillée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Citronnelle_rouill%C3%A9e</t>
+          <t>Citronnelle_rouillée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opisthograptis luteolata
 La Citronnelle rouillée (Opisthograptis luteolata) ou Phalène de l'alisier, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Citronnelle_rouill%C3%A9e</t>
+          <t>Citronnelle_rouillée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom vernaculaire le suggère, le papillon est de couleur jaune citron, le bord des ailes antérieures est garni de petites taches couleur rouille ; la tache médiane est prolongée d'un ocelle irrégulier en direction du corps.
-Chenille
-De couleur variable, brun-gris ou brun-roux, parfois verte avec des plages brunes, la chenille présente une excroissance dorsale bifide sur le 3e segment abdominal. Polyphage, elle se nourrit de divers arbres ou arbustes : poiriers, pommiers, sorbiers, saule marsault, prunellier, aubépines, etc. La chenille de deuxième génération hiverne, parfois sous forme de chrysalide.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Citronnelle_rouill%C3%A9e</t>
+          <t>Citronnelle_rouillée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition géographique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On retrouve ce papillon dans la région paléarctique et au Proche-Orient. Partout en France.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De couleur variable, brun-gris ou brun-roux, parfois verte avec des plages brunes, la chenille présente une excroissance dorsale bifide sur le 3e segment abdominal. Polyphage, elle se nourrit de divers arbres ou arbustes : poiriers, pommiers, sorbiers, saule marsault, prunellier, aubépines, etc. La chenille de deuxième génération hiverne, parfois sous forme de chrysalide.
 </t>
         </is>
       </c>
@@ -558,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citronnelle_rouill%C3%A9e</t>
+          <t>Citronnelle_rouillée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +591,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve ce papillon dans la région paléarctique et au Proche-Orient. Partout en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Citronnelle_rouillée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citronnelle_rouill%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce bivoltine occupe des milieux variés : bois, haies, broussailles, jardins, prairies. On peut observer les papillons d'avril à septembre même pendant le jour.
 </t>
